--- a/biology/Histoire de la zoologie et de la botanique/Roberto_Donoso-Barros/Roberto_Donoso-Barros.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Roberto_Donoso-Barros/Roberto_Donoso-Barros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roberto Donoso-Barros est un herpétologiste chilien, né le 5 octobre 1921 à Santiago du Chili et mort le 2 août 1975 à Concepción.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient un titre de docteur en médecine à l’université du Chili en 1947 et rejoint l’Institutio de Biología Juan Noé. En 1954, il devient professeur de biologie à l’université du Chili puis à partir de 1965 à l’université de Concepción. Donoso-Barros s’intéresse aux amphibiens et aux reptiles d’Amérique du Sud. Il a exercé une grande influence sur ses étudiants et sur l’étude de l’histoire naturelle dans son pays.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Kraig Adler (1989). Contributions to the History of Herpetology,  Society for the study of amphibians and reptiles : 202 p.  (ISBN 0-916984-19-2)</t>
         </is>
